--- a/document/功能点.xlsx
+++ b/document/功能点.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shichunjing/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shichunjing/Desktop/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5754C647-8B6F-4948-8459-303DA1F657C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6A2262-51EC-D047-840C-E90061C4B106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{4473B53D-D0BE-ED4F-A56C-BDFE72D27BED}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,24 +74,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、主窗口展示区展示视频封面/第一帧等。
-2、视频展示区上方显示视频信息：视频名称、日期、时间等（如果有）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>视频资源展示-摄像头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>视频播放-本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、视频进度标识初始在最左侧，可拖拽；随着视频播放到不同的进度，进度条随之变化。
-2、进度条下方显示两个时间节点：当前播放时长（最左侧）、视频总时长（最右侧）。
-3、点击播放按键，视频开始播放，按键变成暂停键；点击暂停键，视频播放暂停，按键变成播放键。
-4、点击快进或快退按键，视频快进/快退播放2s。
-5、点击上一个/下一个按键，视频切换至统一文件夹下的上一个/下一个视频。对于第一个/最后一个视频，弹出提示框：已经是第一个/最后一个视频。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -113,27 +100,6 @@
   <si>
     <t>1、没有获取视频资源时，快照按键置灰。
 2、此时点击快照按键，将弹出提示“请先选择视频资源”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击“打开...”按键，选择“本地资源”。
-2、获得计算机本地的文件资源管理器。
-3、选择本地.mp4文件，对错误格式的文件提示，不予打开。
-4、为选择的视频创建路径。如果视频之前被打开过，则自动定位相同的路径。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击“打开...”按键，选择“摄像头”。
-2、查找连接的摄像头设备，选择正确的设备。
-3、获得视频输入流信号。不区分摄像头异常的具体原因，均显示“摄像头异常”。
-4、为本次接入的摄像头起别名并创建对应路径，也可以复用之前的路径。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击快照按键。
-2、视频暂停在点击的时刻，同时截取该时刻的视频帧，可以手动调整截图范围，默认范围是整个窗口。可以为快照选择添加备注。
-3、以图像形式保存到默认的文件夹中。视频帧命名为“视频名/摄像头设备名+当前日期时间+编号.jpg”。
-4、主窗口右侧快照记录列表中出现一条新的记录。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -194,14 +160,6 @@
   </si>
   <si>
     <t>缺陷详情-快照显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、对于曾经保存过快照的视频/逻辑设备，视频打开时即显示该视频文件/逻辑设备保存过的快照列表。
-2、快照列表上方显显示快照的基本信息：时间（快照获取并保存的时间），类型（获取时为快照添加的缺陷类型标签），编号（快照的编号，三位有前导零）。
-3、快照列表可以按时间、类型、编号的字典序排序，支持递增和递减。
-4、每一条快照记录前都有选择框，对快照记录进行多选。列表上方有全选选择框，对全部快照记录进行选择/取消选择。选择框旁边有计数器（选中数量/全部数量）。
-5、右键选中某一条快照记录，显示功能列表：快照详情、删除快照、添加备注（跳转详情页添加）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -307,10 +265,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1、点击快照按键。
+2、视频暂停在点击的时刻，同时截取该时刻的视频帧，可以手动调整截图范围，默认范围是整个窗口。进入该手动快照的详情页面。
+3、以图像形式保存到默认的文件夹中。视频帧命名为“视频名/摄像头设备名+当前日期时间+编号.jpg”。
+4、主窗口右侧快照记录列表中出现一条新的记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击“打开...”按键，选择“摄像头”。
+2、查找连接的摄像头设备，选择正确的设备。
+3、获得视频输入流信号。不区分摄像头异常的具体原因，均显示“摄像头异常”。
+4、为本次接入的摄像头起别名并创建对应路径，也可以复用之前的路径。
+  -增加选项：选择历史设备/增加新设备
+  -增加提示：如果输入设备重名，提示更改或选择历史设备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、对于曾经保存过快照的视频/逻辑设备，视频打开时即显示该视频文件/逻辑设备保存过的快照列表。
+2、快照列表上方显显示快照的基本信息：时间（快照获取并保存的时间），类型（获取时为快照添加的缺陷类型标签），编号（快照的编号，三位有前导零）。
+  -编号有删减或者调整，编号如何调整？
+3、快照列表可以按时间、类型、编号的字典序排序，支持递增和递减。默认按编号排序。
+4、每一条快照记录前都有选择框，对快照记录进行多选。列表上方有全选选择框，对全部快照记录进行选择/取消选择。选择框旁边有计数器（选中数量/全部数量）。
+5、右键选中某一条快照记录，显示功能列表：快照详情、删除快照、添加备注（跳转详情页添加）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、点击完成训练。
 2、对于批量训练，清空页面展示的训练数据集信息。
-3、对于图像标注训练，情况图像文件列表、图像展示区。
+3、对于图像标注训练，清空图像文件列表、图像展示区。
 4、提示训练完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击“打开...”按键，选择“本地资源”。（前）
+2、获得计算机本地的文件资源管理器。（前）
+3、选择本地.mp4文件，对错误格式的文件提示，不予打开。（交互，in:文件路径，return：{状态}）
+4、为选择的视频创建路径。（后）如果视频之前被打开过，则自动定位相同的路径。（后）
+  -增加选项：打开新视频/打开历史视频（新增页面功能：视频类型选择，历史视频列表，后端判断）
+-视频文件夹命名：视频名_时间.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、主窗口展示区展示视频封面/第一帧等。（默认第一帧，前）
+2、视频展示区上方显示视频信息：视频名称、日期、时间等（如果有）。（交互，后端处理返回）（in：视频名，return：{格式化信息}）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、视频进度标识初始在最左侧，可拖拽；随着视频播放到不同的进度，进度条随之变化。
+2、进度条下方显示两个时间节点：当前播放时长（最左侧）、视频总时长（最右侧）。
+3、点击播放按键，视频开始播放，按键变成暂停键；点击暂停键，视频播放暂停，按键变成播放键。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="6"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4、点击快进或快退按键，视频快进/快退播放2s。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5、点击上一个/下一个按键，视频切换至统一文件夹下的上一个/下一个视频。对于第一个/最后一个视频，弹出提示框：已经是第一个/最后一个视频。（交互，二级处理）（in：0/1；return：{状态；列表}；in：完整的名字，return：状态）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +346,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -341,6 +369,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="6"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -694,14 +729,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E033FA-AE47-AD45-BE5A-C0F7B2B95CFB}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="73.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
@@ -710,7 +745,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -729,198 +764,198 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="55" customHeight="1">
+    <row r="2" spans="1:7" ht="74" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="48" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="76" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="40" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="85" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="73" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="64" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="90" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="102" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="51" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="39">
       <c r="A12" s="3"/>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26">
       <c r="A13" s="3"/>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="65">
       <c r="A15" s="3"/>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="39">
       <c r="A16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39">
       <c r="A17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="65">
       <c r="A18" s="3"/>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="78">
       <c r="A19" s="3"/>
-      <c r="B19" s="1" t="s">
-        <v>49</v>
+      <c r="B19" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="65">
       <c r="A20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="52">
       <c r="A21" s="3"/>
-      <c r="B21" s="1" t="s">
-        <v>54</v>
+      <c r="B21" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -942,7 +977,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView zoomScale="251" zoomScaleNormal="251" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -952,17 +987,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/document/功能点.xlsx
+++ b/document/功能点.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shichunjing/code/python/labProjects/concrete/fault_detection/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7EECD7-06FB-E246-A514-DA0B02BF3D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAA5574-C06D-8B40-8715-DACEE3BAC683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,17 +115,7 @@
     <t>快照-默认状态</t>
   </si>
   <si>
-    <t>1、没有获取视频资源时，快照按键置灰。
-2、此时点击快照按键，将弹出提示“请先选择视频资源”。</t>
-  </si>
-  <si>
     <t>快照-获取快照</t>
-  </si>
-  <si>
-    <t>1、点击快照按键。
-2、视频暂停在点击的时刻，同时截取该时刻的视频帧，可以手动调整截图范围，默认范围是整个窗口。进入该手动快照的详情页面。
-3、以图像形式保存到默认的文件夹中。视频帧命名为“视频名/摄像头设备名+当前日期时间+编号.jpg”。
-4、主窗口右侧快照记录列表中出现一条新的记录。</t>
   </si>
   <si>
     <t>快照-AI自动快照模式</t>
@@ -141,35 +131,10 @@
     <t>快照记录-快照列表</t>
   </si>
   <si>
-    <t>1、对于曾经保存过快照的视频/逻辑设备，视频打开时即显示该视频文件/逻辑设备保存过的快照列表。
-2、快照列表上方显显示快照的基本信息：时间（快照获取并保存的时间），类型（获取时为快照添加的缺陷类型标签），编号（快照的编号，三位有前导零）。
-  -编号有删减或者调整，编号如何调整？
-3、快照列表可以按时间、类型、编号的字典序排序，支持递增和递减。默认按编号排序。
-4、每一条快照记录前都有选择框，对快照记录进行多选。列表上方有全选选择框，对全部快照记录进行选择/取消选择。选择框旁边有计数器（选中数量/全部数量）。
-5、右键选中某一条快照记录，显示功能列表：快照详情、删除快照、添加备注（跳转详情页添加）。</t>
-  </si>
-  <si>
     <t>快照记录-删除</t>
   </si>
   <si>
-    <t>1、可以对选中的一个/多个快照进行删除。
-2、点击删除键，对于错误的删除（未选中内容）提示。
-3、点击删除键，对于一个删除，弹出窗口提示“是否确认删除选中的xx个文件？”，点击是确认删除，点击否关闭窗口。</t>
-  </si>
-  <si>
     <t>快照记录-详情</t>
-  </si>
-  <si>
-    <t>两种进入详情页的方式：
-1、单条记录-右键-快照详情。
-2、单条记录-选中-点击详情按键。</t>
-  </si>
-  <si>
-    <t>快照记录-导出</t>
-  </si>
-  <si>
-    <t>1、点击导出当前列表，导出内容与内容是否选中无关。
-2、列表导出为快照/缺陷文档（格式待确定）。</t>
   </si>
   <si>
     <t>缺陷详情</t>
@@ -278,6 +243,50 @@
     <t>1、在主展示窗口展示当前摄像头拍摄的画面。
 2、视频展示区上方显示视频信息：摄像头设备名称、当前的日期、时间。（信息接口）
 3、视频播放相关功能区域置灰。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、没有获取视频资源时，快照按键置灰。（前）
+2、此时点击快照按键，将弹出提示“请先选择视频资源”。（前）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击快照按键。
+2、视频暂停在点击的时刻，同时截取该时刻的视频帧，可以手动调整截图范围，默认范围是整个窗口。进入该手动快照的详情页面。
+3、以图像形式保存到默认的文件夹中。视频帧命名为“视频名/摄像头设备名+当前日期时间+编号.jpg”。（后）（图像保存：获取时间、（视频名字）、图像（）、视频内时间、备注）
+4、主窗口右侧快照记录列表中出现一条新的记录（后：查记录，参数：排序方式）。
+方法：自定义编号合法判断</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、对于曾经保存过快照的视频/逻辑设备，视频打开时即显示该视频文件/逻辑设备保存过的快照列表。
+2、快照列表上方显显示快照的基本信息：时间（快照获取并保存的时间），类型（获取时为快照添加的缺陷类型标签），编号（快照的编号，三位有前导零）。
+  -编号有删减或者调整，编号如何调整？ 不调整   set isHefa 
+3、快照列表可以按时间、类型、编号的字典序排序，支持递增和递减。默认按编号排序。
+4、每一条快照记录前都有选择框，对快照记录进行多选。列表上方有全选选择框，对全部快照记录进行选择/取消选择。选择框旁边有计数器（选中数量/全部数量）。（前）
+5、右键选中某一条快照记录，显示功能列表：快照详情、删除快照、添加备注（跳转详情页添加）。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可以对选中的一个/多个快照进行删除。
+2、点击删除键，对于错误的删除（未选中内容）提示。
+3、点击删除键，对于一个删除，弹出窗口提示“是否确认删除选中的xx个文件？”，点击是确认删除，点击否关闭窗口。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种进入详情页的方式：
+1、单条记录-右键-快照详情。
+2、单条记录-选中-点击详情按键。
+上一个下一个快照，上下的定义按进入界面前列表的排序规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快照记录-导出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击导出当前列表，导出内容与内容是否选中无关。
+2、列表导出为快照/缺陷文档（格式待确定）。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -628,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="241" zoomScaleNormal="241" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="241" zoomScaleNormal="241" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12"/>
@@ -680,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42" customHeight="1">
@@ -698,7 +707,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="85" customHeight="1">
@@ -718,143 +727,143 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="64" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="86" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="29" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="53" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="102" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="51" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="39">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="52">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="65">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="39">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39">
       <c r="A17" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="65">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="78">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="65">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="52">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -886,17 +895,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
